--- a/static/excel/四要素模版.xlsx
+++ b/static/excel/四要素模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13386\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13386\Desktop\git\shuyun-ui\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07120304-66E4-4858-B315-E58B51F84F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B86F3-7688-4C67-950E-EDDCE15E2800}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -65,6 +65,14 @@
     <rPh sb="3" eb="4">
       <t>ma</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>310115199402221000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6220123456781230</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -146,6 +154,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -431,7 +442,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -462,19 +473,19 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>3.1011519940222099E+17</v>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>13912345678</v>
       </c>
-      <c r="D2" s="6">
-        <v>6220123456781230</v>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>